--- a/xlsx/澳門_intext.xlsx
+++ b/xlsx/澳門_intext.xlsx
@@ -29,7 +29,7 @@
     <t>香山县</t>
   </si>
   <si>
-    <t>政策_政策_美國_澳門</t>
+    <t>体育运动_体育运动_明成祖_澳門</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
@@ -7023,7 +7023,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -11431,7 +11431,7 @@
         <v>328</v>
       </c>
       <c r="G169" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -21726,7 +21726,7 @@
         <v>976</v>
       </c>
       <c r="G524" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H524" t="s">
         <v>4</v>
@@ -32543,7 +32543,7 @@
         <v>1608</v>
       </c>
       <c r="G897" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H897" t="s">
         <v>4</v>
